--- a/Content/ExcelFiles/ListStudent2.xlsx
+++ b/Content/ExcelFiles/ListStudent2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KyThuat88\Documents\TranVietHoang_1621050401\ExcelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79715CEA-B4D1-4055-B72A-A86DE05E0625}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF9500D-9590-444C-BC18-CAF65100FA12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{071A0F16-F84F-4990-A30F-9DE35136C401}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="762">
   <si>
     <t>MaSinhVien</t>
   </si>
@@ -190,13 +190,2143 @@
   </si>
   <si>
     <t>2.17</t>
+  </si>
+  <si>
+    <t>Ngô Việt</t>
+  </si>
+  <si>
+    <t>Ngô Việt Long</t>
+  </si>
+  <si>
+    <t>1821051004@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>Phạm Văn</t>
+  </si>
+  <si>
+    <t>Phạm Văn Lâm</t>
+  </si>
+  <si>
+    <t>1721050319@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTPM62A</t>
+  </si>
+  <si>
+    <t>2.22</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoài</t>
+  </si>
+  <si>
+    <t>Thương</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoài Thương</t>
+  </si>
+  <si>
+    <t>1721050290@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>1.80</t>
+  </si>
+  <si>
+    <t>Phạm Trường</t>
+  </si>
+  <si>
+    <t>An</t>
+  </si>
+  <si>
+    <t>Phạm Trường An</t>
+  </si>
+  <si>
+    <t>1621050322@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTPM61</t>
+  </si>
+  <si>
+    <t>1.81</t>
+  </si>
+  <si>
+    <t>Phan Tuấn</t>
+  </si>
+  <si>
+    <t>Anh</t>
+  </si>
+  <si>
+    <t>Phan Tuấn Anh</t>
+  </si>
+  <si>
+    <t>1621050260@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>1.82</t>
+  </si>
+  <si>
+    <t>Vũ Thị Lan</t>
+  </si>
+  <si>
+    <t>Vũ Thị Lan Anh</t>
+  </si>
+  <si>
+    <t>1621050262@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>1.83</t>
+  </si>
+  <si>
+    <t>Dương Trí</t>
+  </si>
+  <si>
+    <t>Bách</t>
+  </si>
+  <si>
+    <t>Dương Trí Bách</t>
+  </si>
+  <si>
+    <t>1621050298@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>1.84</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>Bắc</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Bắc</t>
+  </si>
+  <si>
+    <t>1621050351@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>1.85</t>
+  </si>
+  <si>
+    <t>Đặng Thị</t>
+  </si>
+  <si>
+    <t>Biên</t>
+  </si>
+  <si>
+    <t>Đặng Thị Biên</t>
+  </si>
+  <si>
+    <t>1621050152@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.90</t>
+  </si>
+  <si>
+    <t>Thiều Văn</t>
+  </si>
+  <si>
+    <t>Bình</t>
+  </si>
+  <si>
+    <t>Thiều Văn Bình</t>
+  </si>
+  <si>
+    <t>1621050525@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.91</t>
+  </si>
+  <si>
+    <t>Trịnh Như</t>
+  </si>
+  <si>
+    <t>Trịnh Như Bình</t>
+  </si>
+  <si>
+    <t>1621050083@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.92</t>
+  </si>
+  <si>
+    <t>Đặng Huy</t>
+  </si>
+  <si>
+    <t>Cảnh</t>
+  </si>
+  <si>
+    <t>Đặng Huy Cảnh</t>
+  </si>
+  <si>
+    <t>1621050058@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.93</t>
+  </si>
+  <si>
+    <t>Phạm Tiến</t>
+  </si>
+  <si>
+    <t>Phạm Tiến Cảnh</t>
+  </si>
+  <si>
+    <t>1621050422@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.94</t>
+  </si>
+  <si>
+    <t>Ngô Thị Mai</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Ngô Thị Mai Chi</t>
+  </si>
+  <si>
+    <t>1621050834@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.95</t>
+  </si>
+  <si>
+    <t>Trần Minh</t>
+  </si>
+  <si>
+    <t>Chiến</t>
+  </si>
+  <si>
+    <t>Trần Minh Chiến</t>
+  </si>
+  <si>
+    <t>1621050281@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>Vũ Trung</t>
+  </si>
+  <si>
+    <t>Vũ Trung Chiến</t>
+  </si>
+  <si>
+    <t>1621050753@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>Chuẩn</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Chuẩn</t>
+  </si>
+  <si>
+    <t>1621050188@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.98</t>
+  </si>
+  <si>
+    <t>Tạ Xuân</t>
+  </si>
+  <si>
+    <t>Công</t>
+  </si>
+  <si>
+    <t>Tạ Xuân Công</t>
+  </si>
+  <si>
+    <t>1621050283@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.99</t>
+  </si>
+  <si>
+    <t>Trần Văn</t>
+  </si>
+  <si>
+    <t>Cương</t>
+  </si>
+  <si>
+    <t>Trần Văn Cương</t>
+  </si>
+  <si>
+    <t>1621050113@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc</t>
+  </si>
+  <si>
+    <t>Diện</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Diện</t>
+  </si>
+  <si>
+    <t>1621050203@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Nguyễn Sỹ</t>
+  </si>
+  <si>
+    <t>Dũng</t>
+  </si>
+  <si>
+    <t>Nguyễn Sỹ Dũng</t>
+  </si>
+  <si>
+    <t>1621050384@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Dũng</t>
+  </si>
+  <si>
+    <t>1621050817@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.3</t>
+  </si>
+  <si>
+    <t>Vũ Tiến</t>
+  </si>
+  <si>
+    <t>Vũ Tiến Dũng</t>
+  </si>
+  <si>
+    <t>1621050210@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.4</t>
+  </si>
+  <si>
+    <t>Lê Nhật</t>
+  </si>
+  <si>
+    <t>Dương</t>
+  </si>
+  <si>
+    <t>Lê Nhật Dương</t>
+  </si>
+  <si>
+    <t>1621050434@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>Phùng Thế</t>
+  </si>
+  <si>
+    <t>Đại</t>
+  </si>
+  <si>
+    <t>Phùng Thế Đại</t>
+  </si>
+  <si>
+    <t>1621050240@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>Đoàn Thành</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Đoàn Thành Đạt</t>
+  </si>
+  <si>
+    <t>1621050729@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>Hoàng Văn</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Đạt</t>
+  </si>
+  <si>
+    <t>1621050798@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>Trần Mạnh</t>
+  </si>
+  <si>
+    <t>Trần Mạnh Đạt</t>
+  </si>
+  <si>
+    <t>1621050715@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.9</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy</t>
+  </si>
+  <si>
+    <t>Điệp</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Điệp</t>
+  </si>
+  <si>
+    <t>1621050004@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.10</t>
+  </si>
+  <si>
+    <t>Dương Hữu</t>
+  </si>
+  <si>
+    <t>Đức</t>
+  </si>
+  <si>
+    <t>Dương Hữu Đức</t>
+  </si>
+  <si>
+    <t>1621050291@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.11</t>
+  </si>
+  <si>
+    <t>Lê Chí</t>
+  </si>
+  <si>
+    <t>Lê Chí Đức</t>
+  </si>
+  <si>
+    <t>1621050019@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.12</t>
+  </si>
+  <si>
+    <t>Nguyễn Viết</t>
+  </si>
+  <si>
+    <t>Nguyễn Viết Đức</t>
+  </si>
+  <si>
+    <t>1621050485@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.13</t>
+  </si>
+  <si>
+    <t>Nguyễn Trường</t>
+  </si>
+  <si>
+    <t>Giang</t>
+  </si>
+  <si>
+    <t>Nguyễn Trường Giang</t>
+  </si>
+  <si>
+    <t>1621050187@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.14</t>
+  </si>
+  <si>
+    <t>Ngô Văn</t>
+  </si>
+  <si>
+    <t>Hải</t>
+  </si>
+  <si>
+    <t>Ngô Văn Hải</t>
+  </si>
+  <si>
+    <t>1621050758@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>Nguyễn Thanh Hải</t>
+  </si>
+  <si>
+    <t>1621050470@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.16</t>
+  </si>
+  <si>
+    <t>Phạm Minh</t>
+  </si>
+  <si>
+    <t>Phạm Minh Hải</t>
+  </si>
+  <si>
+    <t>1621050192@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.17</t>
+  </si>
+  <si>
+    <t>Lê Hồng</t>
+  </si>
+  <si>
+    <t>Hiệp</t>
+  </si>
+  <si>
+    <t>Lê Hồng Hiệp</t>
+  </si>
+  <si>
+    <t>1621050724@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Hiệp</t>
+  </si>
+  <si>
+    <t>1621050734@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.75</t>
+  </si>
+  <si>
+    <t>Trần Quang</t>
+  </si>
+  <si>
+    <t>Trần Quang Hiệp</t>
+  </si>
+  <si>
+    <t>1621050270@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>Vũ Huy</t>
+  </si>
+  <si>
+    <t>Hiếu</t>
+  </si>
+  <si>
+    <t>Vũ Huy Hiếu</t>
+  </si>
+  <si>
+    <t>1621050634@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.77</t>
+  </si>
+  <si>
+    <t>Vũ Minh</t>
+  </si>
+  <si>
+    <t>Vũ Minh Hiếu</t>
+  </si>
+  <si>
+    <t>1621050054@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>Lê Văn</t>
+  </si>
+  <si>
+    <t>Lê Văn Hoàng</t>
+  </si>
+  <si>
+    <t>1621050807@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>Phùng Văn</t>
+  </si>
+  <si>
+    <t>Huân</t>
+  </si>
+  <si>
+    <t>Phùng Văn Huân</t>
+  </si>
+  <si>
+    <t>1621050526@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.80</t>
+  </si>
+  <si>
+    <t>Lê Văn Hùng</t>
+  </si>
+  <si>
+    <t>1621050375@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>Lê Quang</t>
+  </si>
+  <si>
+    <t>Huy</t>
+  </si>
+  <si>
+    <t>Lê Quang Huy</t>
+  </si>
+  <si>
+    <t>1621050804@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc Huy</t>
+  </si>
+  <si>
+    <t>1621050777@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.83</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang</t>
+  </si>
+  <si>
+    <t>Nguyễn Quang Huy</t>
+  </si>
+  <si>
+    <t>1621050033@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.84</t>
+  </si>
+  <si>
+    <t>1621050141@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>Quách Duy</t>
+  </si>
+  <si>
+    <t>Hưng</t>
+  </si>
+  <si>
+    <t>Quách Duy Hưng</t>
+  </si>
+  <si>
+    <t>1621050249@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.86</t>
+  </si>
+  <si>
+    <t>Lưu Thị</t>
+  </si>
+  <si>
+    <t>Hương</t>
+  </si>
+  <si>
+    <t>Lưu Thị Hương</t>
+  </si>
+  <si>
+    <t>1621050762@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.87</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hương</t>
+  </si>
+  <si>
+    <t>1621050779@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.88</t>
+  </si>
+  <si>
+    <t>Lưu Quốc</t>
+  </si>
+  <si>
+    <t>Lưu Quốc Khánh</t>
+  </si>
+  <si>
+    <t>1621050775@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.89</t>
+  </si>
+  <si>
+    <t>Đỗ Sơn</t>
+  </si>
+  <si>
+    <t>Khoa</t>
+  </si>
+  <si>
+    <t>Đỗ Sơn Khoa</t>
+  </si>
+  <si>
+    <t>1621050131@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Khuê</t>
+  </si>
+  <si>
+    <t>Bùi Minh Khuê</t>
+  </si>
+  <si>
+    <t>1621050206@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Khuyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Khuyên</t>
+  </si>
+  <si>
+    <t>1621050182@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Lê Trung</t>
+  </si>
+  <si>
+    <t>Kiên</t>
+  </si>
+  <si>
+    <t>Lê Trung Kiên</t>
+  </si>
+  <si>
+    <t>1421050460@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm Văn Kiên</t>
+  </si>
+  <si>
+    <t>1621050295@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Lâm</t>
+  </si>
+  <si>
+    <t>1621050088@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hồ Thị Bích</t>
+  </si>
+  <si>
+    <t>Lệ</t>
+  </si>
+  <si>
+    <t>Hồ Thị Bích Lệ</t>
+  </si>
+  <si>
+    <t>1621050094@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm Quang</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Phạm Quang Linh</t>
+  </si>
+  <si>
+    <t>1621050735@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Trương Thị</t>
+  </si>
+  <si>
+    <t>Trương Thị Linh</t>
+  </si>
+  <si>
+    <t>1621050747@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Tất</t>
+  </si>
+  <si>
+    <t>Lọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Tất Lọc</t>
+  </si>
+  <si>
+    <t>1621050335@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đắc Long</t>
+  </si>
+  <si>
+    <t>1621050009@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Doãn</t>
+  </si>
+  <si>
+    <t>Nguyễn Doãn Long</t>
+  </si>
+  <si>
+    <t>1621050128@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Duy Long</t>
+  </si>
+  <si>
+    <t>1621050077@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm Quang Long</t>
+  </si>
+  <si>
+    <t>1621050209@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm Văn Long</t>
+  </si>
+  <si>
+    <t>1621050821@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Trần Gia</t>
+  </si>
+  <si>
+    <t>Trần Gia Long</t>
+  </si>
+  <si>
+    <t>1621050483@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Trần Văn Long</t>
+  </si>
+  <si>
+    <t>1621050047@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.32</t>
+  </si>
+  <si>
+    <t>Luật</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Luật</t>
+  </si>
+  <si>
+    <t>1621050100@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế</t>
+  </si>
+  <si>
+    <t>Lương</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Lương</t>
+  </si>
+  <si>
+    <t>1621050702@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.34</t>
+  </si>
+  <si>
+    <t>Kiều Thế</t>
+  </si>
+  <si>
+    <t>Mạnh</t>
+  </si>
+  <si>
+    <t>Kiều Thế Mạnh</t>
+  </si>
+  <si>
+    <t>1621050741@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>Khương Xuân</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Khương Xuân Nam</t>
+  </si>
+  <si>
+    <t>1621050126@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.36</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung</t>
+  </si>
+  <si>
+    <t>Nguyễn Trung Nam</t>
+  </si>
+  <si>
+    <t>1621050197@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.37</t>
+  </si>
+  <si>
+    <t>Trần Thị</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Trần Thị Nga</t>
+  </si>
+  <si>
+    <t>1621050121@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>Ngân</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngân</t>
+  </si>
+  <si>
+    <t>1621050006@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Ngọc</t>
+  </si>
+  <si>
+    <t>1621050825@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.40</t>
+  </si>
+  <si>
+    <t>Trần Thị Ngọc</t>
+  </si>
+  <si>
+    <t>1621050731@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>Vũ Văn</t>
+  </si>
+  <si>
+    <t>Quyết</t>
+  </si>
+  <si>
+    <t>Vũ Văn Quyết</t>
+  </si>
+  <si>
+    <t>1621050789@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
+    <t>Phạm Tài</t>
+  </si>
+  <si>
+    <t>Sang</t>
+  </si>
+  <si>
+    <t>Phạm Tài Sang</t>
+  </si>
+  <si>
+    <t>1621050274@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.43</t>
+  </si>
+  <si>
+    <t>Đào Công</t>
+  </si>
+  <si>
+    <t>Sơn</t>
+  </si>
+  <si>
+    <t>Đào Công Sơn</t>
+  </si>
+  <si>
+    <t>1621050760@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.44</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc</t>
+  </si>
+  <si>
+    <t>Phạm Ngọc Sơn</t>
+  </si>
+  <si>
+    <t>1621050250@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>Tá</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Tá</t>
+  </si>
+  <si>
+    <t>1621050460@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>Tân</t>
+  </si>
+  <si>
+    <t>Vũ Tiến Tân</t>
+  </si>
+  <si>
+    <t>1621050196@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.47</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc</t>
+  </si>
+  <si>
+    <t>Thành</t>
+  </si>
+  <si>
+    <t>Hoàng Ngọc Thành</t>
+  </si>
+  <si>
+    <t>1621050425@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu</t>
+  </si>
+  <si>
+    <t>Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Thảo</t>
+  </si>
+  <si>
+    <t>1621050227@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.49</t>
+  </si>
+  <si>
+    <t>Phạm Phương</t>
+  </si>
+  <si>
+    <t>Phạm Phương Thảo</t>
+  </si>
+  <si>
+    <t>1621050109@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>Đoàn Đức</t>
+  </si>
+  <si>
+    <t>Đoàn Đức Thắng</t>
+  </si>
+  <si>
+    <t>1621050440@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.51</t>
+  </si>
+  <si>
+    <t>Hoàng Minh</t>
+  </si>
+  <si>
+    <t>Hoàng Minh Thắng</t>
+  </si>
+  <si>
+    <t>1621050078@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phạm Văn Thắng</t>
+  </si>
+  <si>
+    <t>1621050057@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ</t>
+  </si>
+  <si>
+    <t>Thật</t>
+  </si>
+  <si>
+    <t>Nguyễn Đỗ Thật</t>
+  </si>
+  <si>
+    <t>1621050069@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Thịnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Thịnh</t>
+  </si>
+  <si>
+    <t>1621050478@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Thịnh</t>
+  </si>
+  <si>
+    <t>1621050785@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đặng Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Thùy</t>
+  </si>
+  <si>
+    <t>Đặng Thị Ngọc Thùy</t>
+  </si>
+  <si>
+    <t>1621050756@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Thùy</t>
+  </si>
+  <si>
+    <t>1621050819@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đỗ Hồng</t>
+  </si>
+  <si>
+    <t>Tiến</t>
+  </si>
+  <si>
+    <t>Đỗ Hồng Tiến</t>
+  </si>
+  <si>
+    <t>1621050013@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình</t>
+  </si>
+  <si>
+    <t>Nguyễn Đình Tiến</t>
+  </si>
+  <si>
+    <t>1621050705@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Kiều Xuân</t>
+  </si>
+  <si>
+    <t>Toản</t>
+  </si>
+  <si>
+    <t>Kiều Xuân Toản</t>
+  </si>
+  <si>
+    <t>1621050162@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Bùi Văn</t>
+  </si>
+  <si>
+    <t>Trình</t>
+  </si>
+  <si>
+    <t>Bùi Văn Trình</t>
+  </si>
+  <si>
+    <t>1621050352@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh</t>
+  </si>
+  <si>
+    <t>Tùng</t>
+  </si>
+  <si>
+    <t>Hoàng Thanh Tùng</t>
+  </si>
+  <si>
+    <t>1621050736@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Lê Thế</t>
+  </si>
+  <si>
+    <t>Lê Thế Dũng</t>
+  </si>
+  <si>
+    <t>1521050055@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTPM60</t>
+  </si>
+  <si>
+    <t>Đỗ Trí</t>
+  </si>
+  <si>
+    <t>Thức</t>
+  </si>
+  <si>
+    <t>Đỗ Trí Thức</t>
+  </si>
+  <si>
+    <t>1521050211@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đinh Quang</t>
+  </si>
+  <si>
+    <t>Đinh Quang Đại</t>
+  </si>
+  <si>
+    <t>1821050872@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTMM63C</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>Phú</t>
+  </si>
+  <si>
+    <t>Nguyễn Ngọc Phú</t>
+  </si>
+  <si>
+    <t>1821050953@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.68</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Sơn</t>
+  </si>
+  <si>
+    <t>1821050745@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>Đỗ Quang</t>
+  </si>
+  <si>
+    <t>Đỗ Quang Huy</t>
+  </si>
+  <si>
+    <t>1821050224@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTMM63B</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>Lê Phú</t>
+  </si>
+  <si>
+    <t>Lê Phú Tân</t>
+  </si>
+  <si>
+    <t>1821050009@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.71</t>
+  </si>
+  <si>
+    <t>Trịnh Duy</t>
+  </si>
+  <si>
+    <t>Trịnh Duy Tùng</t>
+  </si>
+  <si>
+    <t>1621050544@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTKT65</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>Trần Minh Tùng</t>
+  </si>
+  <si>
+    <t>1621050238@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTKT61</t>
+  </si>
+  <si>
+    <t>2.73</t>
+  </si>
+  <si>
+    <t>Trần Thị Nhật</t>
+  </si>
+  <si>
+    <t>Trang</t>
+  </si>
+  <si>
+    <t>Trần Thị Nhật Trang</t>
+  </si>
+  <si>
+    <t>1621050557@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTKT63</t>
+  </si>
+  <si>
+    <t>2.74</t>
+  </si>
+  <si>
+    <t>Quách Mạnh</t>
+  </si>
+  <si>
+    <t>Hà</t>
+  </si>
+  <si>
+    <t>Quách Mạnh Hà</t>
+  </si>
+  <si>
+    <t>1721050340@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTKT62</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu</t>
+  </si>
+  <si>
+    <t>Nguyễn Thu Trang</t>
+  </si>
+  <si>
+    <t>1621050232@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Chu Văn Nam</t>
+  </si>
+  <si>
+    <t>Chu Văn Nam Anh</t>
+  </si>
+  <si>
+    <t>1621050546@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hoàng Thế</t>
+  </si>
+  <si>
+    <t>Hoàng Thế Anh</t>
+  </si>
+  <si>
+    <t>1621050278@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>ánh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị ánh</t>
+  </si>
+  <si>
+    <t>1621050286@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Ngọc ánh</t>
+  </si>
+  <si>
+    <t>1621050330@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đặng Xuân</t>
+  </si>
+  <si>
+    <t>Bằng</t>
+  </si>
+  <si>
+    <t>Đặng Xuân Bằng</t>
+  </si>
+  <si>
+    <t>1621050884@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Chi</t>
+  </si>
+  <si>
+    <t>1621050305@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Công</t>
+  </si>
+  <si>
+    <t>Chính</t>
+  </si>
+  <si>
+    <t>Nguyễn Công Chính</t>
+  </si>
+  <si>
+    <t>1621050886@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Bùi Thị</t>
+  </si>
+  <si>
+    <t>Dinh</t>
+  </si>
+  <si>
+    <t>Bùi Thị Dinh</t>
+  </si>
+  <si>
+    <t>1621050844@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đinh Văn</t>
+  </si>
+  <si>
+    <t>Đinh Văn Dũng</t>
+  </si>
+  <si>
+    <t>1621050443@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đỗ Trung</t>
+  </si>
+  <si>
+    <t>Duy</t>
+  </si>
+  <si>
+    <t>Đỗ Trung Duy</t>
+  </si>
+  <si>
+    <t>1621050522@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Dương Thị Ngân</t>
+  </si>
+  <si>
+    <t>Dương Thị Ngân Hà</t>
+  </si>
+  <si>
+    <t>1621050876@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hân</t>
+  </si>
+  <si>
+    <t>Bùi Thị Hân</t>
+  </si>
+  <si>
+    <t>1621050459@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.01</t>
+  </si>
+  <si>
+    <t>Đinh Văn Hiếu</t>
+  </si>
+  <si>
+    <t>1621050875@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.02</t>
+  </si>
+  <si>
+    <t>Lê Bật</t>
+  </si>
+  <si>
+    <t>Hoàn</t>
+  </si>
+  <si>
+    <t>Lê Bật Hoàn</t>
+  </si>
+  <si>
+    <t>1621050080@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.03</t>
+  </si>
+  <si>
+    <t>Trần Việt</t>
+  </si>
+  <si>
+    <t>Trần Việt Hoàng</t>
+  </si>
+  <si>
+    <t>1621050401@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>Hồng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hồng</t>
+  </si>
+  <si>
+    <t>1621050564@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.05</t>
+  </si>
+  <si>
+    <t>Lê Huy</t>
+  </si>
+  <si>
+    <t>Lê Huy Hùng</t>
+  </si>
+  <si>
+    <t>1621050181@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.06</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Thanh</t>
+  </si>
+  <si>
+    <t>Huyền</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Thanh Huyền</t>
+  </si>
+  <si>
+    <t>1621050217@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.07</t>
+  </si>
+  <si>
+    <t>Đinh Duy</t>
+  </si>
+  <si>
+    <t>Đinh Duy Khánh</t>
+  </si>
+  <si>
+    <t>1621050446@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.08</t>
+  </si>
+  <si>
+    <t>Phan Duy</t>
+  </si>
+  <si>
+    <t>Phan Duy Kiên</t>
+  </si>
+  <si>
+    <t>1621050569@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.09</t>
+  </si>
+  <si>
+    <t>Lan</t>
+  </si>
+  <si>
+    <t>Trần Thị Lan</t>
+  </si>
+  <si>
+    <t>1621050619@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hoài Linh</t>
+  </si>
+  <si>
+    <t>1621050399@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Vũ Thành</t>
+  </si>
+  <si>
+    <t>Vũ Thành Long</t>
+  </si>
+  <si>
+    <t>1621050200@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn ánh Công</t>
+  </si>
+  <si>
+    <t>Minh</t>
+  </si>
+  <si>
+    <t>Nguyễn ánh Công Minh</t>
+  </si>
+  <si>
+    <t>1621050236@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Bình</t>
+  </si>
+  <si>
+    <t>Nguyễn Bình Minh</t>
+  </si>
+  <si>
+    <t>1621050208@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Bùi Diễm</t>
+  </si>
+  <si>
+    <t>My</t>
+  </si>
+  <si>
+    <t>Bùi Diễm My</t>
+  </si>
+  <si>
+    <t>1621050215@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Bùi Thị Ngân</t>
+  </si>
+  <si>
+    <t>1621050050@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Tạ Thị ánh</t>
+  </si>
+  <si>
+    <t>Nguyệt</t>
+  </si>
+  <si>
+    <t>Tạ Thị ánh Nguyệt</t>
+  </si>
+  <si>
+    <t>1621050556@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Lưu</t>
+  </si>
+  <si>
+    <t>Phước</t>
+  </si>
+  <si>
+    <t>Nguyễn Bá Lưu Phước</t>
+  </si>
+  <si>
+    <t>1621050178@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phượng</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phượng</t>
+  </si>
+  <si>
+    <t>1621050362@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.19</t>
+  </si>
+  <si>
+    <t>Quỳnh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Quỳnh</t>
+  </si>
+  <si>
+    <t>1621050068@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.20</t>
+  </si>
+  <si>
+    <t>Trịnh Thị</t>
+  </si>
+  <si>
+    <t>Sen</t>
+  </si>
+  <si>
+    <t>Trịnh Thị Sen</t>
+  </si>
+  <si>
+    <t>1621050169@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.21</t>
+  </si>
+  <si>
+    <t>Đoàn Đình</t>
+  </si>
+  <si>
+    <t>Tâm</t>
+  </si>
+  <si>
+    <t>Đoàn Đình Tâm</t>
+  </si>
+  <si>
+    <t>1621050620@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.22</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Thanh Tâm</t>
+  </si>
+  <si>
+    <t>1621050824@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.23</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương</t>
+  </si>
+  <si>
+    <t>Thúy</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Phương Thúy</t>
+  </si>
+  <si>
+    <t>1621050587@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.24</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Anh</t>
+  </si>
+  <si>
+    <t>Thư</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Anh Thư</t>
+  </si>
+  <si>
+    <t>1621050453@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.25</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Trang</t>
+  </si>
+  <si>
+    <t>1621050846@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.26</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Đạt</t>
+  </si>
+  <si>
+    <t>1821050292@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTKH63</t>
+  </si>
+  <si>
+    <t>3.30</t>
+  </si>
+  <si>
+    <t>Trần Minh Đức</t>
+  </si>
+  <si>
+    <t>1821050702@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.31</t>
+  </si>
+  <si>
+    <t>Nguyễn Tiến Anh</t>
+  </si>
+  <si>
+    <t>1821050034@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
+    <t>Đặng Thành</t>
+  </si>
+  <si>
+    <t>Đặng Thành Công</t>
+  </si>
+  <si>
+    <t>1821050955@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.33</t>
+  </si>
+  <si>
+    <t>Khang</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Khang</t>
+  </si>
+  <si>
+    <t>1821050707@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.34</t>
+  </si>
+  <si>
+    <t>Vũ Anh</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>Vũ Anh Chung</t>
+  </si>
+  <si>
+    <t>1821050078@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>3.35</t>
+  </si>
+  <si>
+    <t>Lê Thành</t>
+  </si>
+  <si>
+    <t>Lê Thành Thảo</t>
+  </si>
+  <si>
+    <t>1821050843@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>Nguyễn Chiến</t>
+  </si>
+  <si>
+    <t>Nguyễn Chiến Thắng</t>
+  </si>
+  <si>
+    <t>1821050138@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.25</t>
+  </si>
+  <si>
+    <t>Đào Đình</t>
+  </si>
+  <si>
+    <t>Đào Đình Toàn</t>
+  </si>
+  <si>
+    <t>1821050069@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.26</t>
+  </si>
+  <si>
+    <t>Lê Thanh</t>
+  </si>
+  <si>
+    <t>Lê Thanh Tùng</t>
+  </si>
+  <si>
+    <t>1821050979@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.27</t>
+  </si>
+  <si>
+    <t>Đặng Danh</t>
+  </si>
+  <si>
+    <t>Việt</t>
+  </si>
+  <si>
+    <t>Đặng Danh Việt</t>
+  </si>
+  <si>
+    <t>1821051068@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.28</t>
+  </si>
+  <si>
+    <t>Đỗ Văn</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Quyết</t>
+  </si>
+  <si>
+    <t>1621050519@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>DCCTKH61</t>
+  </si>
+  <si>
+    <t>2.29</t>
+  </si>
+  <si>
+    <t>Chu Thanh Tùng</t>
+  </si>
+  <si>
+    <t>Chu Thanh Tùng Anh</t>
+  </si>
+  <si>
+    <t>1621050458@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>Nguyễn Tuấn Anh</t>
+  </si>
+  <si>
+    <t>1621050098@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>Dương Văn</t>
+  </si>
+  <si>
+    <t>Cường</t>
+  </si>
+  <si>
+    <t>Dương Văn Cường</t>
+  </si>
+  <si>
+    <t>1621050301@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Bùi Đình</t>
+  </si>
+  <si>
+    <t>Đa</t>
+  </si>
+  <si>
+    <t>Bùi Đình Đa</t>
+  </si>
+  <si>
+    <t>1621050180@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Vương Nguyên</t>
+  </si>
+  <si>
+    <t>Giáp</t>
+  </si>
+  <si>
+    <t>Vương Nguyên Giáp</t>
+  </si>
+  <si>
+    <t>1621050613@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Trương Hoàng</t>
+  </si>
+  <si>
+    <t>Trương Hoàng Hiệp</t>
+  </si>
+  <si>
+    <t>1621050159@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Chí</t>
+  </si>
+  <si>
+    <t>Vũ Ngọc Chí Hoàng</t>
+  </si>
+  <si>
+    <t>1621050523@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>1621050231@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Khánh</t>
+  </si>
+  <si>
+    <t>1621050841@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Bùi Đức</t>
+  </si>
+  <si>
+    <t>Bùi Đức Mạnh</t>
+  </si>
+  <si>
+    <t>1621050550@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Lê Thị</t>
+  </si>
+  <si>
+    <t>Lê Thị Ngân</t>
+  </si>
+  <si>
+    <t>1621050026@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Quyền</t>
+  </si>
+  <si>
+    <t>Nguyễn Thế Quyền</t>
+  </si>
+  <si>
+    <t>1621050888@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Trần Bá</t>
+  </si>
+  <si>
+    <t>Trần Bá Sơn</t>
+  </si>
+  <si>
+    <t>1621050273@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Trần Ngọc</t>
+  </si>
+  <si>
+    <t>Trần Ngọc Sơn</t>
+  </si>
+  <si>
+    <t>1621050497@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Đặng Văn</t>
+  </si>
+  <si>
+    <t>Thanh</t>
+  </si>
+  <si>
+    <t>Đặng Văn Thanh</t>
+  </si>
+  <si>
+    <t>1621050160@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Hoàng Trọng</t>
+  </si>
+  <si>
+    <t>Hoàng Trọng Thanh</t>
+  </si>
+  <si>
+    <t>1621050235@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Chu Minh Ngọc</t>
+  </si>
+  <si>
+    <t>Thi</t>
+  </si>
+  <si>
+    <t>Chu Minh Ngọc Thi</t>
+  </si>
+  <si>
+    <t>1621050866@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Phan Thị Kim</t>
+  </si>
+  <si>
+    <t>Phan Thị Kim Tiến</t>
+  </si>
+  <si>
+    <t>1621050542@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Chu Thanh</t>
+  </si>
+  <si>
+    <t>Tú</t>
+  </si>
+  <si>
+    <t>Chu Thanh Tú</t>
+  </si>
+  <si>
+    <t>1621050829@studen.humg.edu.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh</t>
+  </si>
+  <si>
+    <t>Nguyễn Anh Tú</t>
+  </si>
+  <si>
+    <t>1621050292@studen.humg.edu.vn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +2349,11 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
   </fonts>
@@ -273,7 +2408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -284,6 +2419,7 @@
     </xf>
     <xf numFmtId="1" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,10 +2735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E88E299-E4EC-4F04-9F15-6ABC75029A8B}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -872,6 +3008,5487 @@
         <v>51</v>
       </c>
     </row>
+    <row r="10" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>1721030108</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="5">
+        <v>326699445</v>
+      </c>
+      <c r="H10" s="6">
+        <v>120</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>1821050621</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="5">
+        <v>337980888</v>
+      </c>
+      <c r="H11" s="6">
+        <v>120</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>1821050975</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="5">
+        <v>325131919</v>
+      </c>
+      <c r="H12" s="6">
+        <v>120</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>1821051019</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="5">
+        <v>328161382</v>
+      </c>
+      <c r="H13" s="6">
+        <v>120</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>1821050899</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="5">
+        <v>356527666</v>
+      </c>
+      <c r="H14" s="6">
+        <v>115</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>1821050025</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="5">
+        <v>383813244</v>
+      </c>
+      <c r="H15" s="6">
+        <v>116</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>1821050962</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="5">
+        <v>354630303</v>
+      </c>
+      <c r="H16" s="6">
+        <v>117</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>1821050816</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="4">
+        <v>369784525</v>
+      </c>
+      <c r="H17" s="6">
+        <v>118</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1821051004</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="5">
+        <v>387476604</v>
+      </c>
+      <c r="H18" s="6">
+        <v>119</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="8">
+        <v>1721050319</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="5">
+        <v>325664684</v>
+      </c>
+      <c r="H19" s="6">
+        <v>123</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="8">
+        <v>1721050290</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G20" s="5">
+        <v>325664725</v>
+      </c>
+      <c r="H20" s="6">
+        <v>124</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="8">
+        <v>1621050322</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="5">
+        <v>325664625</v>
+      </c>
+      <c r="H21" s="6">
+        <v>145</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8">
+        <v>1621050260</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G22" s="5">
+        <v>325664626</v>
+      </c>
+      <c r="H22" s="6">
+        <v>145</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="8">
+        <v>1621050262</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G23" s="5">
+        <v>325664627</v>
+      </c>
+      <c r="H23" s="6">
+        <v>145</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="8">
+        <v>1621050298</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G24" s="5">
+        <v>325664628</v>
+      </c>
+      <c r="H24" s="6">
+        <v>145</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8">
+        <v>1621050351</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G25" s="5">
+        <v>325664629</v>
+      </c>
+      <c r="H25" s="6">
+        <v>145</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8">
+        <v>1621050152</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" s="5">
+        <v>325664630</v>
+      </c>
+      <c r="H26" s="6">
+        <v>145</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8">
+        <v>1621050525</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="5">
+        <v>325664631</v>
+      </c>
+      <c r="H27" s="6">
+        <v>145</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8">
+        <v>1621050083</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G28" s="5">
+        <v>325664632</v>
+      </c>
+      <c r="H28" s="6">
+        <v>145</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8">
+        <v>1621050058</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G29" s="5">
+        <v>325664633</v>
+      </c>
+      <c r="H29" s="6">
+        <v>145</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8">
+        <v>1621050422</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G30" s="5">
+        <v>325664634</v>
+      </c>
+      <c r="H30" s="6">
+        <v>145</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8">
+        <v>1621050834</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G31" s="5">
+        <v>325664635</v>
+      </c>
+      <c r="H31" s="6">
+        <v>145</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8">
+        <v>1621050281</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G32" s="5">
+        <v>325664637</v>
+      </c>
+      <c r="H32" s="6">
+        <v>145</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8">
+        <v>1621050753</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G33" s="5">
+        <v>325664638</v>
+      </c>
+      <c r="H33" s="6">
+        <v>145</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8">
+        <v>1621050188</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="5">
+        <v>325664639</v>
+      </c>
+      <c r="H34" s="6">
+        <v>145</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8">
+        <v>1621050283</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G35" s="5">
+        <v>325664640</v>
+      </c>
+      <c r="H35" s="6">
+        <v>145</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8">
+        <v>1621050113</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G36" s="5">
+        <v>325664641</v>
+      </c>
+      <c r="H36" s="6">
+        <v>145</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8">
+        <v>1621050203</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G37" s="5">
+        <v>325664642</v>
+      </c>
+      <c r="H37" s="6">
+        <v>145</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8">
+        <v>1621050384</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G38" s="5">
+        <v>325664644</v>
+      </c>
+      <c r="H38" s="6">
+        <v>145</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8">
+        <v>1621050817</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G39" s="5">
+        <v>325664645</v>
+      </c>
+      <c r="H39" s="6">
+        <v>145</v>
+      </c>
+      <c r="I39" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8">
+        <v>1621050210</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G40" s="5">
+        <v>325664646</v>
+      </c>
+      <c r="H40" s="6">
+        <v>145</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8">
+        <v>1621050434</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F41" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G41" s="5">
+        <v>325664647</v>
+      </c>
+      <c r="H41" s="6">
+        <v>145</v>
+      </c>
+      <c r="I41" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="8">
+        <v>1621050240</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F42" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G42" s="5">
+        <v>325664648</v>
+      </c>
+      <c r="H42" s="6">
+        <v>145</v>
+      </c>
+      <c r="I42" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8">
+        <v>1621050729</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G43" s="5">
+        <v>325664649</v>
+      </c>
+      <c r="H43" s="6">
+        <v>145</v>
+      </c>
+      <c r="I43" s="7" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8">
+        <v>1621050798</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G44" s="5">
+        <v>325664650</v>
+      </c>
+      <c r="H44" s="6">
+        <v>145</v>
+      </c>
+      <c r="I44" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8">
+        <v>1621050715</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G45" s="5">
+        <v>325664651</v>
+      </c>
+      <c r="H45" s="6">
+        <v>145</v>
+      </c>
+      <c r="I45" s="7" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8">
+        <v>1621050004</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G46" s="5">
+        <v>325664652</v>
+      </c>
+      <c r="H46" s="6">
+        <v>145</v>
+      </c>
+      <c r="I46" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8">
+        <v>1621050291</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F47" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="5">
+        <v>325664653</v>
+      </c>
+      <c r="H47" s="6">
+        <v>145</v>
+      </c>
+      <c r="I47" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8">
+        <v>1621050019</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G48" s="5">
+        <v>325664654</v>
+      </c>
+      <c r="H48" s="6">
+        <v>145</v>
+      </c>
+      <c r="I48" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="8">
+        <v>1621050485</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G49" s="5">
+        <v>325664655</v>
+      </c>
+      <c r="H49" s="6">
+        <v>145</v>
+      </c>
+      <c r="I49" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="8">
+        <v>1621050187</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" s="5">
+        <v>325664656</v>
+      </c>
+      <c r="H50" s="6">
+        <v>145</v>
+      </c>
+      <c r="I50" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="8">
+        <v>1621050758</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G51" s="5">
+        <v>325664657</v>
+      </c>
+      <c r="H51" s="6">
+        <v>145</v>
+      </c>
+      <c r="I51" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="8">
+        <v>1621050470</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G52" s="5">
+        <v>325664658</v>
+      </c>
+      <c r="H52" s="6">
+        <v>145</v>
+      </c>
+      <c r="I52" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="8">
+        <v>1621050192</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G53" s="5">
+        <v>325664659</v>
+      </c>
+      <c r="H53" s="6">
+        <v>145</v>
+      </c>
+      <c r="I53" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8">
+        <v>1621050724</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="5">
+        <v>325664660</v>
+      </c>
+      <c r="H54" s="6">
+        <v>145</v>
+      </c>
+      <c r="I54" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="8">
+        <v>1621050734</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G55" s="5">
+        <v>325664661</v>
+      </c>
+      <c r="H55" s="6">
+        <v>145</v>
+      </c>
+      <c r="I55" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="8">
+        <v>1621050270</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G56" s="5">
+        <v>325664662</v>
+      </c>
+      <c r="H56" s="6">
+        <v>145</v>
+      </c>
+      <c r="I56" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="8">
+        <v>1621050634</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G57" s="5">
+        <v>325664663</v>
+      </c>
+      <c r="H57" s="6">
+        <v>145</v>
+      </c>
+      <c r="I57" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="8">
+        <v>1621050054</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G58" s="5">
+        <v>325664664</v>
+      </c>
+      <c r="H58" s="6">
+        <v>145</v>
+      </c>
+      <c r="I58" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="8">
+        <v>1621050807</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G59" s="5">
+        <v>325664665</v>
+      </c>
+      <c r="H59" s="6">
+        <v>145</v>
+      </c>
+      <c r="I59" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="8">
+        <v>1621050526</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G60" s="5">
+        <v>325664666</v>
+      </c>
+      <c r="H60" s="6">
+        <v>145</v>
+      </c>
+      <c r="I60" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8">
+        <v>1621050375</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G61" s="5">
+        <v>325664667</v>
+      </c>
+      <c r="H61" s="6">
+        <v>145</v>
+      </c>
+      <c r="I61" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="8">
+        <v>1621050804</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G62" s="5">
+        <v>325664668</v>
+      </c>
+      <c r="H62" s="6">
+        <v>145</v>
+      </c>
+      <c r="I62" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8">
+        <v>1621050777</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G63" s="5">
+        <v>325664669</v>
+      </c>
+      <c r="H63" s="6">
+        <v>145</v>
+      </c>
+      <c r="I63" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8">
+        <v>1621050033</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G64" s="5">
+        <v>325664670</v>
+      </c>
+      <c r="H64" s="6">
+        <v>145</v>
+      </c>
+      <c r="I64" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="8">
+        <v>1621050141</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="5">
+        <v>325664671</v>
+      </c>
+      <c r="H65" s="6">
+        <v>145</v>
+      </c>
+      <c r="I65" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="8">
+        <v>1621050249</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G66" s="5">
+        <v>325664672</v>
+      </c>
+      <c r="H66" s="6">
+        <v>145</v>
+      </c>
+      <c r="I66" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="8">
+        <v>1621050762</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" s="5">
+        <v>325664673</v>
+      </c>
+      <c r="H67" s="6">
+        <v>145</v>
+      </c>
+      <c r="I67" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="8">
+        <v>1621050779</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G68" s="5">
+        <v>325664674</v>
+      </c>
+      <c r="H68" s="6">
+        <v>145</v>
+      </c>
+      <c r="I68" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="8">
+        <v>1621050775</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G69" s="5">
+        <v>325664675</v>
+      </c>
+      <c r="H69" s="6">
+        <v>145</v>
+      </c>
+      <c r="I69" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8">
+        <v>1621050131</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>288</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G70" s="5">
+        <v>325664678</v>
+      </c>
+      <c r="H70" s="6">
+        <v>145</v>
+      </c>
+      <c r="I70" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8">
+        <v>1621050206</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G71" s="5">
+        <v>325664679</v>
+      </c>
+      <c r="H71" s="6">
+        <v>145</v>
+      </c>
+      <c r="I71" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="8">
+        <v>1621050182</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="5">
+        <v>325664680</v>
+      </c>
+      <c r="H72" s="6">
+        <v>145</v>
+      </c>
+      <c r="I72" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="8">
+        <v>1421050460</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G73" s="5">
+        <v>325664681</v>
+      </c>
+      <c r="H73" s="6">
+        <v>145</v>
+      </c>
+      <c r="I73" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="8">
+        <v>1621050295</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G74" s="5">
+        <v>325664682</v>
+      </c>
+      <c r="H74" s="6">
+        <v>145</v>
+      </c>
+      <c r="I74" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="8">
+        <v>1621050088</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="F75" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G75" s="5">
+        <v>325664683</v>
+      </c>
+      <c r="H75" s="6">
+        <v>145</v>
+      </c>
+      <c r="I75" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="8">
+        <v>1621050094</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F76" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G76" s="5">
+        <v>325664685</v>
+      </c>
+      <c r="H76" s="6">
+        <v>145</v>
+      </c>
+      <c r="I76" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="8">
+        <v>1621050735</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F77" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G77" s="5">
+        <v>325664686</v>
+      </c>
+      <c r="H77" s="6">
+        <v>145</v>
+      </c>
+      <c r="I77" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="8">
+        <v>1621050747</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="F78" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="5">
+        <v>325664687</v>
+      </c>
+      <c r="H78" s="6">
+        <v>145</v>
+      </c>
+      <c r="I78" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="8">
+        <v>1621050335</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G79" s="5">
+        <v>325664688</v>
+      </c>
+      <c r="H79" s="6">
+        <v>145</v>
+      </c>
+      <c r="I79" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="8">
+        <v>1621050009</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G80" s="5">
+        <v>325664689</v>
+      </c>
+      <c r="H80" s="6">
+        <v>145</v>
+      </c>
+      <c r="I80" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="8">
+        <v>1621050128</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G81" s="5">
+        <v>325664690</v>
+      </c>
+      <c r="H81" s="6">
+        <v>145</v>
+      </c>
+      <c r="I81" s="7" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="8">
+        <v>1621050077</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F82" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G82" s="5">
+        <v>325664691</v>
+      </c>
+      <c r="H82" s="6">
+        <v>145</v>
+      </c>
+      <c r="I82" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="8">
+        <v>1621050209</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="F83" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G83" s="5">
+        <v>325664692</v>
+      </c>
+      <c r="H83" s="6">
+        <v>145</v>
+      </c>
+      <c r="I83" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="8">
+        <v>1621050821</v>
+      </c>
+      <c r="B84" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G84" s="5">
+        <v>325664693</v>
+      </c>
+      <c r="H84" s="6">
+        <v>145</v>
+      </c>
+      <c r="I84" s="7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="8">
+        <v>1621050483</v>
+      </c>
+      <c r="B85" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G85" s="5">
+        <v>325664694</v>
+      </c>
+      <c r="H85" s="6">
+        <v>145</v>
+      </c>
+      <c r="I85" s="7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="8">
+        <v>1621050047</v>
+      </c>
+      <c r="B86" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G86" s="5">
+        <v>325664695</v>
+      </c>
+      <c r="H86" s="6">
+        <v>145</v>
+      </c>
+      <c r="I86" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="8">
+        <v>1621050100</v>
+      </c>
+      <c r="B87" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F87" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G87" s="5">
+        <v>325664696</v>
+      </c>
+      <c r="H87" s="6">
+        <v>145</v>
+      </c>
+      <c r="I87" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="8">
+        <v>1621050702</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F88" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G88" s="5">
+        <v>325664697</v>
+      </c>
+      <c r="H88" s="6">
+        <v>145</v>
+      </c>
+      <c r="I88" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="8">
+        <v>1621050741</v>
+      </c>
+      <c r="B89" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F89" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G89" s="5">
+        <v>325664699</v>
+      </c>
+      <c r="H89" s="6">
+        <v>145</v>
+      </c>
+      <c r="I89" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="8">
+        <v>1621050126</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="F90" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G90" s="5">
+        <v>325664701</v>
+      </c>
+      <c r="H90" s="6">
+        <v>145</v>
+      </c>
+      <c r="I90" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="8">
+        <v>1621050197</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="F91" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G91" s="5">
+        <v>325664702</v>
+      </c>
+      <c r="H91" s="6">
+        <v>145</v>
+      </c>
+      <c r="I91" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="8">
+        <v>1621050121</v>
+      </c>
+      <c r="B92" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F92" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G92" s="5">
+        <v>325664703</v>
+      </c>
+      <c r="H92" s="6">
+        <v>145</v>
+      </c>
+      <c r="I92" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="8">
+        <v>1621050006</v>
+      </c>
+      <c r="B93" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F93" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G93" s="5">
+        <v>325664704</v>
+      </c>
+      <c r="H93" s="6">
+        <v>145</v>
+      </c>
+      <c r="I93" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="8">
+        <v>1621050825</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F94" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G94" s="5">
+        <v>325664705</v>
+      </c>
+      <c r="H94" s="6">
+        <v>145</v>
+      </c>
+      <c r="I94" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="8">
+        <v>1621050731</v>
+      </c>
+      <c r="B95" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="F95" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G95" s="5">
+        <v>325664706</v>
+      </c>
+      <c r="H95" s="6">
+        <v>145</v>
+      </c>
+      <c r="I95" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="8">
+        <v>1621050789</v>
+      </c>
+      <c r="B96" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G96" s="5">
+        <v>325664707</v>
+      </c>
+      <c r="H96" s="6">
+        <v>145</v>
+      </c>
+      <c r="I96" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="8">
+        <v>1621050274</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G97" s="5">
+        <v>325664708</v>
+      </c>
+      <c r="H97" s="6">
+        <v>145</v>
+      </c>
+      <c r="I97" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
+        <v>1621050760</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G98" s="5">
+        <v>325664709</v>
+      </c>
+      <c r="H98" s="6">
+        <v>145</v>
+      </c>
+      <c r="I98" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
+        <v>1621050250</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>389</v>
+      </c>
+      <c r="C99" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G99" s="5">
+        <v>325664710</v>
+      </c>
+      <c r="H99" s="6">
+        <v>145</v>
+      </c>
+      <c r="I99" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
+        <v>1621050460</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G100" s="5">
+        <v>325664711</v>
+      </c>
+      <c r="H100" s="6">
+        <v>145</v>
+      </c>
+      <c r="I100" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
+        <v>1621050196</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>397</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G101" s="5">
+        <v>325664712</v>
+      </c>
+      <c r="H101" s="6">
+        <v>145</v>
+      </c>
+      <c r="I101" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
+        <v>1621050425</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G102" s="5">
+        <v>325664713</v>
+      </c>
+      <c r="H102" s="6">
+        <v>145</v>
+      </c>
+      <c r="I102" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>1621050227</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G103" s="5">
+        <v>325664714</v>
+      </c>
+      <c r="H103" s="6">
+        <v>145</v>
+      </c>
+      <c r="I103" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>1621050109</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G104" s="5">
+        <v>325664715</v>
+      </c>
+      <c r="H104" s="6">
+        <v>145</v>
+      </c>
+      <c r="I104" s="7" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="8">
+        <v>1621050440</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G105" s="5">
+        <v>325664716</v>
+      </c>
+      <c r="H105" s="6">
+        <v>145</v>
+      </c>
+      <c r="I105" s="7" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="8">
+        <v>1621050078</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G106" s="5">
+        <v>325664717</v>
+      </c>
+      <c r="H106" s="6">
+        <v>145</v>
+      </c>
+      <c r="I106" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="8">
+        <v>1621050057</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>422</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G107" s="5">
+        <v>325664718</v>
+      </c>
+      <c r="H107" s="6">
+        <v>145</v>
+      </c>
+      <c r="I107" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="8">
+        <v>1621050069</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G108" s="5">
+        <v>325664719</v>
+      </c>
+      <c r="H108" s="6">
+        <v>145</v>
+      </c>
+      <c r="I108" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="8">
+        <v>1621050478</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G109" s="5">
+        <v>325664720</v>
+      </c>
+      <c r="H109" s="6">
+        <v>145</v>
+      </c>
+      <c r="I109" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="8">
+        <v>1621050785</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G110" s="5">
+        <v>325664721</v>
+      </c>
+      <c r="H110" s="6">
+        <v>145</v>
+      </c>
+      <c r="I110" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
+        <v>1621050756</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>433</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G111" s="5">
+        <v>325664722</v>
+      </c>
+      <c r="H111" s="6">
+        <v>145</v>
+      </c>
+      <c r="I111" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="8">
+        <v>1621050819</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>434</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G112" s="5">
+        <v>325664723</v>
+      </c>
+      <c r="H112" s="6">
+        <v>145</v>
+      </c>
+      <c r="I112" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="8">
+        <v>1621050013</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G113" s="5">
+        <v>325664726</v>
+      </c>
+      <c r="H113" s="6">
+        <v>145</v>
+      </c>
+      <c r="I113" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="8">
+        <v>1621050705</v>
+      </c>
+      <c r="B114" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G114" s="5">
+        <v>325664727</v>
+      </c>
+      <c r="H114" s="6">
+        <v>145</v>
+      </c>
+      <c r="I114" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="8">
+        <v>1621050162</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>446</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>447</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>448</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G115" s="5">
+        <v>325664728</v>
+      </c>
+      <c r="H115" s="6">
+        <v>145</v>
+      </c>
+      <c r="I115" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="8">
+        <v>1621050352</v>
+      </c>
+      <c r="B116" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G116" s="5">
+        <v>325664729</v>
+      </c>
+      <c r="H116" s="6">
+        <v>145</v>
+      </c>
+      <c r="I116" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="8">
+        <v>1621050736</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>454</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="G117" s="5">
+        <v>325664730</v>
+      </c>
+      <c r="H117" s="6">
+        <v>145</v>
+      </c>
+      <c r="I117" s="7" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="8">
+        <v>1521050055</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>458</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>460</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="G118" s="5">
+        <v>325664643</v>
+      </c>
+      <c r="H118" s="6">
+        <v>148</v>
+      </c>
+      <c r="I118" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="8">
+        <v>1521050211</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="D119" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="G119" s="5">
+        <v>325664724</v>
+      </c>
+      <c r="H119" s="6">
+        <v>148</v>
+      </c>
+      <c r="I119" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" s="3" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
+        <v>1821050872</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D120" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G120" s="4">
+        <v>986253482</v>
+      </c>
+      <c r="H120" s="6">
+        <v>118</v>
+      </c>
+      <c r="I120" s="7" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
+        <v>1821050953</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G121" s="5">
+        <v>387717148</v>
+      </c>
+      <c r="H121" s="6">
+        <v>118</v>
+      </c>
+      <c r="I121" s="7" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
+        <v>1821050745</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G122" s="5">
+        <v>968960602</v>
+      </c>
+      <c r="H122" s="6">
+        <v>118</v>
+      </c>
+      <c r="I122" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
+        <v>1821050224</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>478</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>479</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>480</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G123" s="5">
+        <v>352497755</v>
+      </c>
+      <c r="H123" s="6">
+        <v>118</v>
+      </c>
+      <c r="I123" s="7" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
+        <v>1821050009</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="G124" s="5">
+        <v>358432015</v>
+      </c>
+      <c r="H124" s="6">
+        <v>118</v>
+      </c>
+      <c r="I124" s="7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" s="3" customFormat="1" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="8">
+        <v>1621050544</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>488</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="G125" s="5">
+        <v>325664600</v>
+      </c>
+      <c r="H125" s="6">
+        <v>145</v>
+      </c>
+      <c r="I125" s="7" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="8">
+        <v>1621050238</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G126" s="5">
+        <v>325664599</v>
+      </c>
+      <c r="H126" s="6">
+        <v>145</v>
+      </c>
+      <c r="I126" s="7" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="8">
+        <v>1621050557</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>500</v>
+      </c>
+      <c r="G127" s="5">
+        <v>325664598</v>
+      </c>
+      <c r="H127" s="6">
+        <v>145</v>
+      </c>
+      <c r="I127" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="8">
+        <v>1721050340</v>
+      </c>
+      <c r="B128" s="8" t="s">
+        <v>502</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>504</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="F128" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="G128" s="5">
+        <v>325664567</v>
+      </c>
+      <c r="H128" s="6">
+        <v>145</v>
+      </c>
+      <c r="I128" s="7" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="8">
+        <v>1621050232</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="G129" s="5">
+        <v>325664597</v>
+      </c>
+      <c r="H129" s="6">
+        <v>145</v>
+      </c>
+      <c r="I129" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="8">
+        <v>1621050546</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="E130" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="F130" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G130" s="5">
+        <v>325664556</v>
+      </c>
+      <c r="H130" s="6">
+        <v>145</v>
+      </c>
+      <c r="I130" s="7" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="8">
+        <v>1621050278</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="E131" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G131" s="5">
+        <v>325664557</v>
+      </c>
+      <c r="H131" s="6">
+        <v>145</v>
+      </c>
+      <c r="I131" s="7" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="8">
+        <v>1621050286</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="E132" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G132" s="5">
+        <v>325664558</v>
+      </c>
+      <c r="H132" s="6">
+        <v>145</v>
+      </c>
+      <c r="I132" s="7" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="8">
+        <v>1621050330</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G133" s="5">
+        <v>325664559</v>
+      </c>
+      <c r="H133" s="6">
+        <v>145</v>
+      </c>
+      <c r="I133" s="7" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="8">
+        <v>1621050884</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>522</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>524</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G134" s="5">
+        <v>325664560</v>
+      </c>
+      <c r="H134" s="6">
+        <v>145</v>
+      </c>
+      <c r="I134" s="7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="8">
+        <v>1621050305</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G135" s="5">
+        <v>325664561</v>
+      </c>
+      <c r="H135" s="6">
+        <v>145</v>
+      </c>
+      <c r="I135" s="7" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="8">
+        <v>1621050886</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>528</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>530</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G136" s="5">
+        <v>325664562</v>
+      </c>
+      <c r="H136" s="6">
+        <v>145</v>
+      </c>
+      <c r="I136" s="7" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="8">
+        <v>1621050844</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G137" s="5">
+        <v>325664563</v>
+      </c>
+      <c r="H137" s="6">
+        <v>145</v>
+      </c>
+      <c r="I137" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="8">
+        <v>1621050443</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>538</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G138" s="5">
+        <v>325664564</v>
+      </c>
+      <c r="H138" s="6">
+        <v>145</v>
+      </c>
+      <c r="I138" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="8">
+        <v>1621050522</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>542</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G139" s="5">
+        <v>325664565</v>
+      </c>
+      <c r="H139" s="6">
+        <v>145</v>
+      </c>
+      <c r="I139" s="7" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="8">
+        <v>1621050876</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>503</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="E140" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="F140" s="4" t="s">
+        <v>494</v>
+      </c>
+      <c r="G140" s="5">
+        <v>325664566</v>
+      </c>
+      <c r="H140" s="6">
+        <v>145</v>
+      </c>
+      <c r="I140" s="7" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="8">
+        <v>1621050459</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="E141" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G141" s="5">
+        <v>325664568</v>
+      </c>
+      <c r="H141" s="6">
+        <v>145</v>
+      </c>
+      <c r="I141" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="8">
+        <v>1621050875</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>550</v>
+      </c>
+      <c r="E142" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G142" s="5">
+        <v>325664569</v>
+      </c>
+      <c r="H142" s="6">
+        <v>145</v>
+      </c>
+      <c r="I142" s="7" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="8">
+        <v>1621050080</v>
+      </c>
+      <c r="B143" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>554</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>555</v>
+      </c>
+      <c r="E143" s="4" t="s">
+        <v>556</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G143" s="5">
+        <v>325664570</v>
+      </c>
+      <c r="H143" s="6">
+        <v>145</v>
+      </c>
+      <c r="I143" s="7" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="8">
+        <v>1621050401</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>558</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="E144" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G144" s="5">
+        <v>325664571</v>
+      </c>
+      <c r="H144" s="6">
+        <v>145</v>
+      </c>
+      <c r="I144" s="7" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="8">
+        <v>1621050564</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G145" s="5">
+        <v>325664572</v>
+      </c>
+      <c r="H145" s="6">
+        <v>145</v>
+      </c>
+      <c r="I145" s="7" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="8">
+        <v>1621050181</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>566</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>567</v>
+      </c>
+      <c r="E146" s="4" t="s">
+        <v>568</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G146" s="5">
+        <v>325664573</v>
+      </c>
+      <c r="H146" s="6">
+        <v>145</v>
+      </c>
+      <c r="I146" s="7" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="8">
+        <v>1621050217</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>571</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>572</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>573</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G147" s="5">
+        <v>325664574</v>
+      </c>
+      <c r="H147" s="6">
+        <v>145</v>
+      </c>
+      <c r="I147" s="7" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="8">
+        <v>1621050446</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>577</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G148" s="5">
+        <v>325664575</v>
+      </c>
+      <c r="H148" s="6">
+        <v>145</v>
+      </c>
+      <c r="I148" s="7" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="8">
+        <v>1621050569</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G149" s="5">
+        <v>325664576</v>
+      </c>
+      <c r="H149" s="6">
+        <v>145</v>
+      </c>
+      <c r="I149" s="7" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="8">
+        <v>1621050619</v>
+      </c>
+      <c r="B150" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="C150" s="8" t="s">
+        <v>583</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G150" s="5">
+        <v>325664577</v>
+      </c>
+      <c r="H150" s="6">
+        <v>145</v>
+      </c>
+      <c r="I150" s="7" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="8">
+        <v>1621050399</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>586</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G151" s="5">
+        <v>325664578</v>
+      </c>
+      <c r="H151" s="6">
+        <v>145</v>
+      </c>
+      <c r="I151" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="8">
+        <v>1621050200</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>591</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G152" s="5">
+        <v>325664579</v>
+      </c>
+      <c r="H152" s="6">
+        <v>145</v>
+      </c>
+      <c r="I152" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="8">
+        <v>1621050236</v>
+      </c>
+      <c r="B153" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>594</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G153" s="5">
+        <v>325664581</v>
+      </c>
+      <c r="H153" s="6">
+        <v>145</v>
+      </c>
+      <c r="I153" s="7" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="8">
+        <v>1621050208</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>596</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>597</v>
+      </c>
+      <c r="E154" s="4" t="s">
+        <v>598</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G154" s="5">
+        <v>325664582</v>
+      </c>
+      <c r="H154" s="6">
+        <v>145</v>
+      </c>
+      <c r="I154" s="7" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="8">
+        <v>1621050215</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>599</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>600</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>601</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>602</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G155" s="5">
+        <v>325664584</v>
+      </c>
+      <c r="H155" s="6">
+        <v>145</v>
+      </c>
+      <c r="I155" s="7" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="8">
+        <v>1621050050</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>532</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E156" s="4" t="s">
+        <v>604</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G156" s="5">
+        <v>325664585</v>
+      </c>
+      <c r="H156" s="6">
+        <v>145</v>
+      </c>
+      <c r="I156" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="8">
+        <v>1621050556</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>606</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="E157" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G157" s="5">
+        <v>325664586</v>
+      </c>
+      <c r="H157" s="6">
+        <v>145</v>
+      </c>
+      <c r="I157" s="7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="8">
+        <v>1621050178</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>610</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>611</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>612</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G158" s="5">
+        <v>325664587</v>
+      </c>
+      <c r="H158" s="6">
+        <v>145</v>
+      </c>
+      <c r="I158" s="7" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="8">
+        <v>1621050362</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>614</v>
+      </c>
+      <c r="E159" s="4" t="s">
+        <v>615</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G159" s="5">
+        <v>325664588</v>
+      </c>
+      <c r="H159" s="6">
+        <v>145</v>
+      </c>
+      <c r="I159" s="7" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="8">
+        <v>1621050068</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>618</v>
+      </c>
+      <c r="E160" s="4" t="s">
+        <v>619</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G160" s="5">
+        <v>325664589</v>
+      </c>
+      <c r="H160" s="6">
+        <v>145</v>
+      </c>
+      <c r="I160" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="8">
+        <v>1621050169</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>623</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>624</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G161" s="5">
+        <v>325664590</v>
+      </c>
+      <c r="H161" s="6">
+        <v>145</v>
+      </c>
+      <c r="I161" s="7" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="8">
+        <v>1621050620</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D162" s="4" t="s">
+        <v>628</v>
+      </c>
+      <c r="E162" s="4" t="s">
+        <v>629</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G162" s="5">
+        <v>325664591</v>
+      </c>
+      <c r="H162" s="6">
+        <v>145</v>
+      </c>
+      <c r="I162" s="7" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="8">
+        <v>1621050824</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>632</v>
+      </c>
+      <c r="E163" s="4" t="s">
+        <v>633</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G163" s="5">
+        <v>325664592</v>
+      </c>
+      <c r="H163" s="6">
+        <v>145</v>
+      </c>
+      <c r="I163" s="7" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="8">
+        <v>1621050587</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>635</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>637</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>638</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G164" s="5">
+        <v>325664593</v>
+      </c>
+      <c r="H164" s="6">
+        <v>145</v>
+      </c>
+      <c r="I164" s="7" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="8">
+        <v>1621050453</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>642</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>643</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G165" s="5">
+        <v>325664594</v>
+      </c>
+      <c r="H165" s="6">
+        <v>145</v>
+      </c>
+      <c r="I165" s="7" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="8">
+        <v>1621050846</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>645</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>646</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="G166" s="5">
+        <v>325664596</v>
+      </c>
+      <c r="H166" s="6">
+        <v>145</v>
+      </c>
+      <c r="I166" s="7" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
+        <v>1821050292</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>648</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>649</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>650</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G167" s="4">
+        <v>966219941</v>
+      </c>
+      <c r="H167" s="6">
+        <v>139</v>
+      </c>
+      <c r="I167" s="7" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>1821050702</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D168" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>654</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G168" s="5">
+        <v>379610510</v>
+      </c>
+      <c r="H168" s="6">
+        <v>139</v>
+      </c>
+      <c r="I168" s="7" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
+        <v>1821050034</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D169" s="4" t="s">
+        <v>656</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>657</v>
+      </c>
+      <c r="F169" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G169" s="4">
+        <v>973776072</v>
+      </c>
+      <c r="H169" s="6">
+        <v>139</v>
+      </c>
+      <c r="I169" s="7" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
+        <v>1821050955</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>660</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>661</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G170" s="4">
+        <v>983888611</v>
+      </c>
+      <c r="H170" s="6">
+        <v>139</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
+        <v>1821050707</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>663</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>664</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>665</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G171" s="5">
+        <v>386167548</v>
+      </c>
+      <c r="H171" s="6">
+        <v>139</v>
+      </c>
+      <c r="I171" s="7" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
+        <v>1821050078</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>667</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>668</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>669</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>670</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G172" s="4">
+        <v>974880788</v>
+      </c>
+      <c r="H172" s="6">
+        <v>139</v>
+      </c>
+      <c r="I172" s="7" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
+        <v>1821050843</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G173" s="5">
+        <v>974336856</v>
+      </c>
+      <c r="H173" s="6">
+        <v>139</v>
+      </c>
+      <c r="I173" s="7" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
+        <v>1821050138</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>676</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>677</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>678</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G174" s="5">
+        <v>986273909</v>
+      </c>
+      <c r="H174" s="6">
+        <v>139</v>
+      </c>
+      <c r="I174" s="7" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
+        <v>1821050069</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>680</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D175" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="E175" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="F175" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G175" s="5">
+        <v>334088718</v>
+      </c>
+      <c r="H175" s="6">
+        <v>139</v>
+      </c>
+      <c r="I175" s="7" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
+        <v>1821050979</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>455</v>
+      </c>
+      <c r="D176" s="4" t="s">
+        <v>685</v>
+      </c>
+      <c r="E176" s="4" t="s">
+        <v>686</v>
+      </c>
+      <c r="F176" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G176" s="5">
+        <v>335587809</v>
+      </c>
+      <c r="H176" s="6">
+        <v>139</v>
+      </c>
+      <c r="I176" s="7" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
+        <v>1821051068</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>688</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>689</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>690</v>
+      </c>
+      <c r="E177" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="F177" s="4" t="s">
+        <v>651</v>
+      </c>
+      <c r="G177" s="5">
+        <v>356527666</v>
+      </c>
+      <c r="H177" s="6">
+        <v>139</v>
+      </c>
+      <c r="I177" s="7" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="8">
+        <v>1621050519</v>
+      </c>
+      <c r="B178" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C178" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>694</v>
+      </c>
+      <c r="E178" s="4" t="s">
+        <v>695</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G178" s="5">
+        <v>325664614</v>
+      </c>
+      <c r="H178" s="6">
+        <v>145</v>
+      </c>
+      <c r="I178" s="7" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="8">
+        <v>1621050458</v>
+      </c>
+      <c r="B179" s="8" t="s">
+        <v>698</v>
+      </c>
+      <c r="C179" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>699</v>
+      </c>
+      <c r="E179" s="4" t="s">
+        <v>700</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G179" s="5">
+        <v>325664601</v>
+      </c>
+      <c r="H179" s="6">
+        <v>145</v>
+      </c>
+      <c r="I179" s="7" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="8">
+        <v>1621050098</v>
+      </c>
+      <c r="B180" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="C180" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>702</v>
+      </c>
+      <c r="E180" s="4" t="s">
+        <v>703</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G180" s="5">
+        <v>325664602</v>
+      </c>
+      <c r="H180" s="6">
+        <v>145</v>
+      </c>
+      <c r="I180" s="7" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="8">
+        <v>1621050301</v>
+      </c>
+      <c r="B181" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C181" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>707</v>
+      </c>
+      <c r="E181" s="4" t="s">
+        <v>708</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G181" s="5">
+        <v>325664603</v>
+      </c>
+      <c r="H181" s="6">
+        <v>145</v>
+      </c>
+      <c r="I181" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="8">
+        <v>1621050180</v>
+      </c>
+      <c r="B182" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>710</v>
+      </c>
+      <c r="D182" s="4" t="s">
+        <v>711</v>
+      </c>
+      <c r="E182" s="4" t="s">
+        <v>712</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G182" s="5">
+        <v>325664604</v>
+      </c>
+      <c r="H182" s="6">
+        <v>145</v>
+      </c>
+      <c r="I182" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="8">
+        <v>1621050613</v>
+      </c>
+      <c r="B183" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="D183" s="4" t="s">
+        <v>715</v>
+      </c>
+      <c r="E183" s="4" t="s">
+        <v>716</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G183" s="5">
+        <v>325664606</v>
+      </c>
+      <c r="H183" s="6">
+        <v>145</v>
+      </c>
+      <c r="I183" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="8">
+        <v>1621050159</v>
+      </c>
+      <c r="B184" s="8" t="s">
+        <v>717</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D184" s="4" t="s">
+        <v>718</v>
+      </c>
+      <c r="E184" s="4" t="s">
+        <v>719</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G184" s="5">
+        <v>325664607</v>
+      </c>
+      <c r="H184" s="6">
+        <v>145</v>
+      </c>
+      <c r="I184" s="7" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="8">
+        <v>1621050523</v>
+      </c>
+      <c r="B185" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D185" s="4" t="s">
+        <v>721</v>
+      </c>
+      <c r="E185" s="4" t="s">
+        <v>722</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G185" s="5">
+        <v>325664608</v>
+      </c>
+      <c r="H185" s="6">
+        <v>145</v>
+      </c>
+      <c r="I185" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="8">
+        <v>1621050231</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D186" s="4" t="s">
+        <v>576</v>
+      </c>
+      <c r="E186" s="4" t="s">
+        <v>723</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G186" s="5">
+        <v>325664609</v>
+      </c>
+      <c r="H186" s="6">
+        <v>145</v>
+      </c>
+      <c r="I186" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="8">
+        <v>1621050841</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D187" s="4" t="s">
+        <v>724</v>
+      </c>
+      <c r="E187" s="4" t="s">
+        <v>725</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G187" s="5">
+        <v>325664610</v>
+      </c>
+      <c r="H187" s="6">
+        <v>145</v>
+      </c>
+      <c r="I187" s="7" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="8">
+        <v>1621050550</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>726</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="D188" s="4" t="s">
+        <v>727</v>
+      </c>
+      <c r="E188" s="4" t="s">
+        <v>728</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G188" s="5">
+        <v>325664611</v>
+      </c>
+      <c r="H188" s="6">
+        <v>145</v>
+      </c>
+      <c r="I188" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="8">
+        <v>1621050026</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>729</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="D189" s="4" t="s">
+        <v>730</v>
+      </c>
+      <c r="E189" s="4" t="s">
+        <v>731</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G189" s="5">
+        <v>325664612</v>
+      </c>
+      <c r="H189" s="6">
+        <v>145</v>
+      </c>
+      <c r="I189" s="7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="8">
+        <v>1621050888</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="D190" s="4" t="s">
+        <v>733</v>
+      </c>
+      <c r="E190" s="4" t="s">
+        <v>734</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G190" s="5">
+        <v>325664613</v>
+      </c>
+      <c r="H190" s="6">
+        <v>145</v>
+      </c>
+      <c r="I190" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="8">
+        <v>1621050273</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D191" s="4" t="s">
+        <v>736</v>
+      </c>
+      <c r="E191" s="4" t="s">
+        <v>737</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G191" s="5">
+        <v>325664615</v>
+      </c>
+      <c r="H191" s="6">
+        <v>145</v>
+      </c>
+      <c r="I191" s="7" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="8">
+        <v>1621050497</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>739</v>
+      </c>
+      <c r="E192" s="4" t="s">
+        <v>740</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G192" s="5">
+        <v>325664616</v>
+      </c>
+      <c r="H192" s="6">
+        <v>145</v>
+      </c>
+      <c r="I192" s="7" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="8">
+        <v>1621050160</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>741</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D193" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="E193" s="4" t="s">
+        <v>744</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G193" s="5">
+        <v>325664617</v>
+      </c>
+      <c r="H193" s="6">
+        <v>145</v>
+      </c>
+      <c r="I193" s="7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="8">
+        <v>1621050235</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>745</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="D194" s="4" t="s">
+        <v>746</v>
+      </c>
+      <c r="E194" s="4" t="s">
+        <v>747</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G194" s="5">
+        <v>325664618</v>
+      </c>
+      <c r="H194" s="6">
+        <v>145</v>
+      </c>
+      <c r="I194" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="8">
+        <v>1621050866</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>748</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="D195" s="4" t="s">
+        <v>750</v>
+      </c>
+      <c r="E195" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G195" s="5">
+        <v>325664619</v>
+      </c>
+      <c r="H195" s="6">
+        <v>145</v>
+      </c>
+      <c r="I195" s="7" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="8">
+        <v>1621050542</v>
+      </c>
+      <c r="B196" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="C196" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="D196" s="4" t="s">
+        <v>753</v>
+      </c>
+      <c r="E196" s="4" t="s">
+        <v>754</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G196" s="5">
+        <v>325664620</v>
+      </c>
+      <c r="H196" s="6">
+        <v>145</v>
+      </c>
+      <c r="I196" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="8">
+        <v>1621050829</v>
+      </c>
+      <c r="B197" s="8" t="s">
+        <v>755</v>
+      </c>
+      <c r="C197" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="D197" s="4" t="s">
+        <v>757</v>
+      </c>
+      <c r="E197" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G197" s="5">
+        <v>325664621</v>
+      </c>
+      <c r="H197" s="6">
+        <v>145</v>
+      </c>
+      <c r="I197" s="7" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="8">
+        <v>1621050292</v>
+      </c>
+      <c r="B198" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="C198" s="8" t="s">
+        <v>756</v>
+      </c>
+      <c r="D198" s="4" t="s">
+        <v>760</v>
+      </c>
+      <c r="E198" s="4" t="s">
+        <v>761</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>696</v>
+      </c>
+      <c r="G198" s="5">
+        <v>325664622</v>
+      </c>
+      <c r="H198" s="6">
+        <v>145</v>
+      </c>
+      <c r="I198" s="7" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
